--- a/brawlstars.xlsx
+++ b/brawlstars.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yaoda\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yaoda\Downloads\brawlstars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BAA107F-4392-40FE-A6D8-DAD5627449CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229DD77C-6AFD-45B5-AB97-1BB397F74949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="34780" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="117">
   <si>
     <t>Map</t>
   </si>
@@ -375,6 +375,18 @@
   </si>
   <si>
     <t>Blue/Red</t>
+  </si>
+  <si>
+    <t>Bea</t>
+  </si>
+  <si>
+    <t>Hank</t>
+  </si>
+  <si>
+    <t>Willow</t>
+  </si>
+  <si>
+    <t>Doug</t>
   </si>
 </sst>
 </file>
@@ -443,49 +455,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="62">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9933FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -504,377 +474,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9933FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9933FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1160,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T41"/>
+  <dimension ref="A1:T46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1281,11 +880,11 @@
       </c>
       <c r="S2">
         <f>COUNTIF(C2:C100, "Blue")/COUNTIF(C2:C100, "Red")</f>
-        <v>0.81818181818181823</v>
+        <v>0.95652173913043481</v>
       </c>
       <c r="T2">
         <f>COUNTIF(Q2:Q100, "W")/COUNTIF(Q2:Q100, "L")</f>
-        <v>1.8571428571428572</v>
+        <v>1.8125</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
@@ -3355,18 +2954,283 @@
         <v>78</v>
       </c>
     </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>61</v>
+      </c>
+      <c r="F42" t="s">
+        <v>86</v>
+      </c>
+      <c r="G42" t="s">
+        <v>93</v>
+      </c>
+      <c r="H42" t="s">
+        <v>54</v>
+      </c>
+      <c r="I42" t="s">
+        <v>14</v>
+      </c>
+      <c r="J42" t="s">
+        <v>87</v>
+      </c>
+      <c r="K42" t="s">
+        <v>4</v>
+      </c>
+      <c r="L42" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42" t="s">
+        <v>4</v>
+      </c>
+      <c r="P42" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" t="s">
+        <v>43</v>
+      </c>
+      <c r="G43" t="s">
+        <v>5</v>
+      </c>
+      <c r="H43" t="s">
+        <v>110</v>
+      </c>
+      <c r="I43" t="s">
+        <v>16</v>
+      </c>
+      <c r="J43" t="s">
+        <v>87</v>
+      </c>
+      <c r="K43" t="s">
+        <v>4</v>
+      </c>
+      <c r="L43" t="s">
+        <v>33</v>
+      </c>
+      <c r="M43" t="s">
+        <v>11</v>
+      </c>
+      <c r="N43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O43" t="s">
+        <v>23</v>
+      </c>
+      <c r="P43" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>61</v>
+      </c>
+      <c r="F44" t="s">
+        <v>64</v>
+      </c>
+      <c r="G44" t="s">
+        <v>54</v>
+      </c>
+      <c r="H44" t="s">
+        <v>5</v>
+      </c>
+      <c r="I44" t="s">
+        <v>31</v>
+      </c>
+      <c r="J44" t="s">
+        <v>113</v>
+      </c>
+      <c r="K44" t="s">
+        <v>9</v>
+      </c>
+      <c r="L44" t="s">
+        <v>60</v>
+      </c>
+      <c r="M44" t="s">
+        <v>37</v>
+      </c>
+      <c r="N44" t="s">
+        <v>60</v>
+      </c>
+      <c r="O44" t="s">
+        <v>3</v>
+      </c>
+      <c r="P44" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>2</v>
+      </c>
+      <c r="F45" t="s">
+        <v>29</v>
+      </c>
+      <c r="G45" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" t="s">
+        <v>104</v>
+      </c>
+      <c r="I45" t="s">
+        <v>24</v>
+      </c>
+      <c r="J45" t="s">
+        <v>43</v>
+      </c>
+      <c r="K45" t="s">
+        <v>11</v>
+      </c>
+      <c r="L45" t="s">
+        <v>30</v>
+      </c>
+      <c r="M45" t="s">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>5</v>
+      </c>
+      <c r="O45" t="s">
+        <v>28</v>
+      </c>
+      <c r="P45" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" t="s">
+        <v>114</v>
+      </c>
+      <c r="J46" t="s">
+        <v>43</v>
+      </c>
+      <c r="K46" t="s">
+        <v>115</v>
+      </c>
+      <c r="L46" t="s">
+        <v>4</v>
+      </c>
+      <c r="M46" t="s">
+        <v>33</v>
+      </c>
+      <c r="N46" t="s">
+        <v>55</v>
+      </c>
+      <c r="O46" t="s">
+        <v>2</v>
+      </c>
+      <c r="P46" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C2:C41">
-    <cfRule type="expression" dxfId="26" priority="8">
+  <conditionalFormatting sqref="C2:C46">
+    <cfRule type="expression" dxfId="2" priority="8">
       <formula>C2="Blue"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="9">
+    <cfRule type="expression" dxfId="1" priority="9">
       <formula>C2="Red"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q41">
-    <cfRule type="expression" dxfId="24" priority="7">
+  <conditionalFormatting sqref="Q2:Q46">
+    <cfRule type="expression" dxfId="0" priority="7">
       <formula>Q2="W"</formula>
     </cfRule>
   </conditionalFormatting>
